--- a/Data/2021_03_25.xlsx
+++ b/Data/2021_03_25.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Krisen\2019_nCov\03 AG Lage\07_R\_outputs\_Neu_web_bericht\210324\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Krisen\2019_nCov\03 AG Lage\07_R\_outputs\_Neu_web_bericht\210325\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="COVID19 Zahlen" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="152">
-  <si>
-    <t>Daten des Coronavirussituationsberichts, Stand 2021-03-24 08:00 Uhr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="162">
+  <si>
+    <t>Daten des Coronavirussituationsberichts, Stand 2021-03-25 08:00 Uhr</t>
   </si>
   <si>
     <t>Quelle: BAG/MT</t>
@@ -344,13 +344,13 @@
     <t>442</t>
   </si>
   <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>1264</t>
-  </si>
-  <si>
-    <t>114</t>
+    <t>456</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
   <si>
     <t>Keine aktuellen Daten gemeldet</t>
@@ -380,6 +380,12 @@
     <t>570</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>168</t>
   </si>
   <si>
@@ -395,6 +401,15 @@
     <t>472</t>
   </si>
   <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
     <t>230</t>
   </si>
   <si>
@@ -404,16 +419,19 @@
     <t>75</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>104</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>127</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>10</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>1624</t>
@@ -440,13 +458,25 @@
     <t>107</t>
   </si>
   <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
     <t>308</t>
   </si>
   <si>
     <t>1042</t>
   </si>
   <si>
-    <t>17</t>
+    <t>574</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>194</t>
   </si>
   <si>
     <t>1782</t>
@@ -820,9 +850,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G402"/>
+  <dimension ref="A1:G403"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5452,10 +5482,10 @@
         <v>4674</v>
       </c>
       <c r="F209">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G209">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5478,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="G210">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -5501,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="G211">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -5524,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="G212">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -5547,7 +5577,7 @@
         <v>5</v>
       </c>
       <c r="G213">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -5570,7 +5600,7 @@
         <v>4</v>
       </c>
       <c r="G214">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5593,7 +5623,7 @@
         <v>2</v>
       </c>
       <c r="G215">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -5616,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="G216">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5639,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="G217">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -5662,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="G218">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -5685,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="G219">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -5708,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="G220">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5731,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="G221">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5754,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="G222">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5777,7 +5807,7 @@
         <v>2</v>
       </c>
       <c r="G223">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5800,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="G224">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -5823,7 +5853,7 @@
         <v>3</v>
       </c>
       <c r="G225">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -5846,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="G226">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -5869,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="G227">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -5892,7 +5922,7 @@
         <v>5</v>
       </c>
       <c r="G228">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -5915,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="G229">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -5938,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="G230">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -5961,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="G231">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -5984,7 +6014,7 @@
         <v>2</v>
       </c>
       <c r="G232">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6007,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="G233">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6030,7 +6060,7 @@
         <v>2</v>
       </c>
       <c r="G234">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -6053,7 +6083,7 @@
         <v>3</v>
       </c>
       <c r="G235">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6076,7 +6106,7 @@
         <v>3</v>
       </c>
       <c r="G236">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -6099,7 +6129,7 @@
         <v>3</v>
       </c>
       <c r="G237">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -6122,7 +6152,7 @@
         <v>3</v>
       </c>
       <c r="G238">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6145,7 +6175,7 @@
         <v>5</v>
       </c>
       <c r="G239">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -6168,7 +6198,7 @@
         <v>6</v>
       </c>
       <c r="G240">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -6191,7 +6221,7 @@
         <v>5</v>
       </c>
       <c r="G241">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6214,7 +6244,7 @@
         <v>5</v>
       </c>
       <c r="G242">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -6237,7 +6267,7 @@
         <v>10</v>
       </c>
       <c r="G243">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -6260,7 +6290,7 @@
         <v>7</v>
       </c>
       <c r="G244">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -6283,7 +6313,7 @@
         <v>7</v>
       </c>
       <c r="G245">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6306,7 +6336,7 @@
         <v>16</v>
       </c>
       <c r="G246">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -6329,7 +6359,7 @@
         <v>12</v>
       </c>
       <c r="G247">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -6352,7 +6382,7 @@
         <v>18</v>
       </c>
       <c r="G248">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -6375,7 +6405,7 @@
         <v>25</v>
       </c>
       <c r="G249">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -6398,7 +6428,7 @@
         <v>25</v>
       </c>
       <c r="G250">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -6421,7 +6451,7 @@
         <v>25</v>
       </c>
       <c r="G251">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -6444,7 +6474,7 @@
         <v>21</v>
       </c>
       <c r="G252">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -6467,7 +6497,7 @@
         <v>20</v>
       </c>
       <c r="G253">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -6490,7 +6520,7 @@
         <v>39</v>
       </c>
       <c r="G254">
-        <v>2095</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -6513,7 +6543,7 @@
         <v>42</v>
       </c>
       <c r="G255">
-        <v>2137</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -6536,7 +6566,7 @@
         <v>58</v>
       </c>
       <c r="G256">
-        <v>2195</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -6559,7 +6589,7 @@
         <v>42</v>
       </c>
       <c r="G257">
-        <v>2237</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -6582,7 +6612,7 @@
         <v>59</v>
       </c>
       <c r="G258">
-        <v>2296</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -6605,7 +6635,7 @@
         <v>59</v>
       </c>
       <c r="G259">
-        <v>2355</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -6628,7 +6658,7 @@
         <v>59</v>
       </c>
       <c r="G260">
-        <v>2414</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -6651,7 +6681,7 @@
         <v>79</v>
       </c>
       <c r="G261">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -6674,7 +6704,7 @@
         <v>82</v>
       </c>
       <c r="G262">
-        <v>2575</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -6688,16 +6718,16 @@
         <v>217294</v>
       </c>
       <c r="D263">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E263">
-        <v>9699</v>
+        <v>9700</v>
       </c>
       <c r="F263">
         <v>78</v>
       </c>
       <c r="G263">
-        <v>2653</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -6711,16 +6741,16 @@
         <v>224693</v>
       </c>
       <c r="D264">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E264">
-        <v>9957</v>
+        <v>9959</v>
       </c>
       <c r="F264">
         <v>92</v>
       </c>
       <c r="G264">
-        <v>2745</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -6728,22 +6758,22 @@
         <v>44142</v>
       </c>
       <c r="B265">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="C265">
-        <v>228897</v>
+        <v>228896</v>
       </c>
       <c r="D265">
         <v>218</v>
       </c>
       <c r="E265">
-        <v>10175</v>
+        <v>10177</v>
       </c>
       <c r="F265">
         <v>69</v>
       </c>
       <c r="G265">
-        <v>2814</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -6754,19 +6784,19 @@
         <v>3001</v>
       </c>
       <c r="C266">
-        <v>231898</v>
+        <v>231897</v>
       </c>
       <c r="D266">
         <v>165</v>
       </c>
       <c r="E266">
-        <v>10340</v>
+        <v>10342</v>
       </c>
       <c r="F266">
         <v>89</v>
       </c>
       <c r="G266">
-        <v>2903</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -6777,19 +6807,19 @@
         <v>8732</v>
       </c>
       <c r="C267">
-        <v>240630</v>
+        <v>240629</v>
       </c>
       <c r="D267">
         <v>277</v>
       </c>
       <c r="E267">
-        <v>10617</v>
+        <v>10619</v>
       </c>
       <c r="F267">
         <v>85</v>
       </c>
       <c r="G267">
-        <v>2988</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -6800,19 +6830,19 @@
         <v>7422</v>
       </c>
       <c r="C268">
-        <v>248052</v>
+        <v>248051</v>
       </c>
       <c r="D268">
         <v>209</v>
       </c>
       <c r="E268">
-        <v>10826</v>
+        <v>10828</v>
       </c>
       <c r="F268">
         <v>83</v>
       </c>
       <c r="G268">
-        <v>3071</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -6823,19 +6853,19 @@
         <v>6377</v>
       </c>
       <c r="C269">
-        <v>254429</v>
+        <v>254428</v>
       </c>
       <c r="D269">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E269">
-        <v>11050</v>
+        <v>11051</v>
       </c>
       <c r="F269">
         <v>89</v>
       </c>
       <c r="G269">
-        <v>3160</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -6846,19 +6876,19 @@
         <v>5983</v>
       </c>
       <c r="C270">
-        <v>260412</v>
+        <v>260411</v>
       </c>
       <c r="D270">
         <v>215</v>
       </c>
       <c r="E270">
-        <v>11265</v>
+        <v>11266</v>
       </c>
       <c r="F270">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G270">
-        <v>3263</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -6869,19 +6899,19 @@
         <v>5704</v>
       </c>
       <c r="C271">
-        <v>266116</v>
+        <v>266115</v>
       </c>
       <c r="D271">
         <v>228</v>
       </c>
       <c r="E271">
-        <v>11493</v>
+        <v>11494</v>
       </c>
       <c r="F271">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G271">
-        <v>3348</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -6892,19 +6922,19 @@
         <v>3222</v>
       </c>
       <c r="C272">
-        <v>269338</v>
+        <v>269337</v>
       </c>
       <c r="D272">
         <v>175</v>
       </c>
       <c r="E272">
-        <v>11668</v>
+        <v>11669</v>
       </c>
       <c r="F272">
         <v>77</v>
       </c>
       <c r="G272">
-        <v>3425</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -6915,19 +6945,19 @@
         <v>2326</v>
       </c>
       <c r="C273">
-        <v>271664</v>
+        <v>271663</v>
       </c>
       <c r="D273">
         <v>139</v>
       </c>
       <c r="E273">
-        <v>11807</v>
+        <v>11808</v>
       </c>
       <c r="F273">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G273">
-        <v>3510</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -6938,19 +6968,19 @@
         <v>6609</v>
       </c>
       <c r="C274">
-        <v>278273</v>
+        <v>278272</v>
       </c>
       <c r="D274">
         <v>268</v>
       </c>
       <c r="E274">
-        <v>12075</v>
+        <v>12076</v>
       </c>
       <c r="F274">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G274">
-        <v>3601</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -6961,19 +6991,19 @@
         <v>5452</v>
       </c>
       <c r="C275">
-        <v>283725</v>
+        <v>283724</v>
       </c>
       <c r="D275">
         <v>204</v>
       </c>
       <c r="E275">
-        <v>12279</v>
+        <v>12280</v>
       </c>
       <c r="F275">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G275">
-        <v>3687</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -6984,19 +7014,19 @@
         <v>4877</v>
       </c>
       <c r="C276">
-        <v>288602</v>
+        <v>288601</v>
       </c>
       <c r="D276">
         <v>182</v>
       </c>
       <c r="E276">
-        <v>12461</v>
+        <v>12462</v>
       </c>
       <c r="F276">
         <v>104</v>
       </c>
       <c r="G276">
-        <v>3791</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -7007,19 +7037,19 @@
         <v>4512</v>
       </c>
       <c r="C277">
-        <v>293114</v>
+        <v>293113</v>
       </c>
       <c r="D277">
         <v>164</v>
       </c>
       <c r="E277">
-        <v>12625</v>
+        <v>12626</v>
       </c>
       <c r="F277">
         <v>79</v>
       </c>
       <c r="G277">
-        <v>3870</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -7030,19 +7060,19 @@
         <v>4340</v>
       </c>
       <c r="C278">
-        <v>297454</v>
+        <v>297453</v>
       </c>
       <c r="D278">
         <v>209</v>
       </c>
       <c r="E278">
-        <v>12834</v>
+        <v>12835</v>
       </c>
       <c r="F278">
         <v>81</v>
       </c>
       <c r="G278">
-        <v>3951</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -7053,19 +7083,19 @@
         <v>2585</v>
       </c>
       <c r="C279">
-        <v>300039</v>
+        <v>300038</v>
       </c>
       <c r="D279">
         <v>103</v>
       </c>
       <c r="E279">
-        <v>12937</v>
+        <v>12938</v>
       </c>
       <c r="F279">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G279">
-        <v>4029</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -7076,19 +7106,19 @@
         <v>1902</v>
       </c>
       <c r="C280">
-        <v>301941</v>
+        <v>301940</v>
       </c>
       <c r="D280">
         <v>148</v>
       </c>
       <c r="E280">
-        <v>13085</v>
+        <v>13086</v>
       </c>
       <c r="F280">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G280">
-        <v>4109</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -7099,19 +7129,19 @@
         <v>5462</v>
       </c>
       <c r="C281">
-        <v>307403</v>
+        <v>307402</v>
       </c>
       <c r="D281">
         <v>225</v>
       </c>
       <c r="E281">
-        <v>13310</v>
+        <v>13311</v>
       </c>
       <c r="F281">
         <v>96</v>
       </c>
       <c r="G281">
-        <v>4205</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -7122,19 +7152,19 @@
         <v>4455</v>
       </c>
       <c r="C282">
-        <v>311858</v>
+        <v>311857</v>
       </c>
       <c r="D282">
         <v>159</v>
       </c>
       <c r="E282">
-        <v>13469</v>
+        <v>13470</v>
       </c>
       <c r="F282">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G282">
-        <v>4294</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -7145,19 +7175,19 @@
         <v>4332</v>
       </c>
       <c r="C283">
-        <v>316190</v>
+        <v>316189</v>
       </c>
       <c r="D283">
         <v>169</v>
       </c>
       <c r="E283">
-        <v>13638</v>
+        <v>13639</v>
       </c>
       <c r="F283">
         <v>88</v>
       </c>
       <c r="G283">
-        <v>4382</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -7168,19 +7198,19 @@
         <v>3971</v>
       </c>
       <c r="C284">
-        <v>320161</v>
+        <v>320160</v>
       </c>
       <c r="D284">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E284">
-        <v>13813</v>
+        <v>13815</v>
       </c>
       <c r="F284">
         <v>75</v>
       </c>
       <c r="G284">
-        <v>4457</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -7191,19 +7221,19 @@
         <v>4076</v>
       </c>
       <c r="C285">
-        <v>324237</v>
+        <v>324236</v>
       </c>
       <c r="D285">
         <v>188</v>
       </c>
       <c r="E285">
-        <v>14001</v>
+        <v>14003</v>
       </c>
       <c r="F285">
         <v>88</v>
       </c>
       <c r="G285">
-        <v>4545</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -7214,19 +7244,19 @@
         <v>2327</v>
       </c>
       <c r="C286">
-        <v>326564</v>
+        <v>326563</v>
       </c>
       <c r="D286">
         <v>149</v>
       </c>
       <c r="E286">
-        <v>14150</v>
+        <v>14152</v>
       </c>
       <c r="F286">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G286">
-        <v>4632</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -7237,19 +7267,19 @@
         <v>1703</v>
       </c>
       <c r="C287">
-        <v>328267</v>
+        <v>328266</v>
       </c>
       <c r="D287">
         <v>113</v>
       </c>
       <c r="E287">
-        <v>14263</v>
+        <v>14265</v>
       </c>
       <c r="F287">
         <v>83</v>
       </c>
       <c r="G287">
-        <v>4715</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -7260,19 +7290,19 @@
         <v>5304</v>
       </c>
       <c r="C288">
-        <v>333571</v>
+        <v>333570</v>
       </c>
       <c r="D288">
         <v>198</v>
       </c>
       <c r="E288">
-        <v>14461</v>
+        <v>14463</v>
       </c>
       <c r="F288">
         <v>93</v>
       </c>
       <c r="G288">
-        <v>4808</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -7283,19 +7313,19 @@
         <v>4275</v>
       </c>
       <c r="C289">
-        <v>337846</v>
+        <v>337845</v>
       </c>
       <c r="D289">
         <v>150</v>
       </c>
       <c r="E289">
-        <v>14611</v>
+        <v>14613</v>
       </c>
       <c r="F289">
         <v>88</v>
       </c>
       <c r="G289">
-        <v>4896</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -7306,19 +7336,19 @@
         <v>4438</v>
       </c>
       <c r="C290">
-        <v>342284</v>
+        <v>342283</v>
       </c>
       <c r="D290">
         <v>167</v>
       </c>
       <c r="E290">
-        <v>14778</v>
+        <v>14780</v>
       </c>
       <c r="F290">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G290">
-        <v>4984</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -7329,19 +7359,19 @@
         <v>4337</v>
       </c>
       <c r="C291">
-        <v>346621</v>
+        <v>346620</v>
       </c>
       <c r="D291">
         <v>180</v>
       </c>
       <c r="E291">
-        <v>14958</v>
+        <v>14960</v>
       </c>
       <c r="F291">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G291">
-        <v>5063</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -7352,19 +7382,19 @@
         <v>4578</v>
       </c>
       <c r="C292">
-        <v>351199</v>
+        <v>351198</v>
       </c>
       <c r="D292">
         <v>176</v>
       </c>
       <c r="E292">
-        <v>15134</v>
+        <v>15136</v>
       </c>
       <c r="F292">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G292">
-        <v>5143</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -7375,19 +7405,19 @@
         <v>2532</v>
       </c>
       <c r="C293">
-        <v>353731</v>
+        <v>353730</v>
       </c>
       <c r="D293">
         <v>139</v>
       </c>
       <c r="E293">
-        <v>15273</v>
+        <v>15275</v>
       </c>
       <c r="F293">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G293">
-        <v>5239</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -7398,19 +7428,19 @@
         <v>1942</v>
       </c>
       <c r="C294">
-        <v>355673</v>
+        <v>355672</v>
       </c>
       <c r="D294">
         <v>131</v>
       </c>
       <c r="E294">
-        <v>15404</v>
+        <v>15406</v>
       </c>
       <c r="F294">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G294">
-        <v>5304</v>
+        <v>5324</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -7421,19 +7451,19 @@
         <v>5851</v>
       </c>
       <c r="C295">
-        <v>361524</v>
+        <v>361523</v>
       </c>
       <c r="D295">
         <v>212</v>
       </c>
       <c r="E295">
-        <v>15616</v>
+        <v>15618</v>
       </c>
       <c r="F295">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G295">
-        <v>5382</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -7444,19 +7474,19 @@
         <v>4686</v>
       </c>
       <c r="C296">
-        <v>366210</v>
+        <v>366209</v>
       </c>
       <c r="D296">
         <v>172</v>
       </c>
       <c r="E296">
-        <v>15788</v>
+        <v>15790</v>
       </c>
       <c r="F296">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G296">
-        <v>5476</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -7467,19 +7497,19 @@
         <v>5262</v>
       </c>
       <c r="C297">
-        <v>371472</v>
+        <v>371471</v>
       </c>
       <c r="D297">
         <v>203</v>
       </c>
       <c r="E297">
-        <v>15991</v>
+        <v>15993</v>
       </c>
       <c r="F297">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G297">
-        <v>5557</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -7490,19 +7520,19 @@
         <v>4661</v>
       </c>
       <c r="C298">
-        <v>376133</v>
+        <v>376132</v>
       </c>
       <c r="D298">
         <v>167</v>
       </c>
       <c r="E298">
-        <v>16158</v>
+        <v>16160</v>
       </c>
       <c r="F298">
         <v>84</v>
       </c>
       <c r="G298">
-        <v>5641</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -7513,19 +7543,19 @@
         <v>4709</v>
       </c>
       <c r="C299">
-        <v>380842</v>
+        <v>380841</v>
       </c>
       <c r="D299">
         <v>160</v>
       </c>
       <c r="E299">
-        <v>16318</v>
+        <v>16320</v>
       </c>
       <c r="F299">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G299">
-        <v>5729</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -7536,19 +7566,19 @@
         <v>2890</v>
       </c>
       <c r="C300">
-        <v>383732</v>
+        <v>383731</v>
       </c>
       <c r="D300">
         <v>143</v>
       </c>
       <c r="E300">
-        <v>16461</v>
+        <v>16463</v>
       </c>
       <c r="F300">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G300">
-        <v>5813</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -7559,19 +7589,19 @@
         <v>2117</v>
       </c>
       <c r="C301">
-        <v>385849</v>
+        <v>385848</v>
       </c>
       <c r="D301">
         <v>139</v>
       </c>
       <c r="E301">
-        <v>16600</v>
+        <v>16602</v>
       </c>
       <c r="F301">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G301">
-        <v>5897</v>
+        <v>5925</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -7582,19 +7612,19 @@
         <v>5947</v>
       </c>
       <c r="C302">
-        <v>391796</v>
+        <v>391795</v>
       </c>
       <c r="D302">
         <v>193</v>
       </c>
       <c r="E302">
-        <v>16793</v>
+        <v>16795</v>
       </c>
       <c r="F302">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G302">
-        <v>5994</v>
+        <v>6023</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -7605,19 +7635,19 @@
         <v>5206</v>
       </c>
       <c r="C303">
-        <v>397002</v>
+        <v>397001</v>
       </c>
       <c r="D303">
         <v>176</v>
       </c>
       <c r="E303">
-        <v>16969</v>
+        <v>16971</v>
       </c>
       <c r="F303">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G303">
-        <v>6082</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -7628,19 +7658,19 @@
         <v>4854</v>
       </c>
       <c r="C304">
-        <v>401856</v>
+        <v>401855</v>
       </c>
       <c r="D304">
         <v>170</v>
       </c>
       <c r="E304">
-        <v>17139</v>
+        <v>17141</v>
       </c>
       <c r="F304">
         <v>91</v>
       </c>
       <c r="G304">
-        <v>6173</v>
+        <v>6203</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -7651,19 +7681,19 @@
         <v>4423</v>
       </c>
       <c r="C305">
-        <v>406279</v>
+        <v>406278</v>
       </c>
       <c r="D305">
         <v>162</v>
       </c>
       <c r="E305">
-        <v>17301</v>
+        <v>17303</v>
       </c>
       <c r="F305">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G305">
-        <v>6259</v>
+        <v>6292</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -7674,19 +7704,19 @@
         <v>4390</v>
       </c>
       <c r="C306">
-        <v>410669</v>
+        <v>410668</v>
       </c>
       <c r="D306">
         <v>188</v>
       </c>
       <c r="E306">
-        <v>17489</v>
+        <v>17491</v>
       </c>
       <c r="F306">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G306">
-        <v>6350</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -7697,19 +7727,19 @@
         <v>2707</v>
       </c>
       <c r="C307">
-        <v>413376</v>
+        <v>413375</v>
       </c>
       <c r="D307">
         <v>132</v>
       </c>
       <c r="E307">
-        <v>17621</v>
+        <v>17623</v>
       </c>
       <c r="F307">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G307">
-        <v>6429</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -7720,19 +7750,19 @@
         <v>1975</v>
       </c>
       <c r="C308">
-        <v>415351</v>
+        <v>415350</v>
       </c>
       <c r="D308">
         <v>107</v>
       </c>
       <c r="E308">
-        <v>17728</v>
+        <v>17730</v>
       </c>
       <c r="F308">
         <v>100</v>
       </c>
       <c r="G308">
-        <v>6529</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -7743,19 +7773,19 @@
         <v>5668</v>
       </c>
       <c r="C309">
-        <v>421019</v>
+        <v>421018</v>
       </c>
       <c r="D309">
         <v>190</v>
       </c>
       <c r="E309">
-        <v>17918</v>
+        <v>17920</v>
       </c>
       <c r="F309">
         <v>88</v>
       </c>
       <c r="G309">
-        <v>6617</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -7766,19 +7796,19 @@
         <v>4660</v>
       </c>
       <c r="C310">
-        <v>425679</v>
+        <v>425678</v>
       </c>
       <c r="D310">
         <v>159</v>
       </c>
       <c r="E310">
-        <v>18077</v>
+        <v>18079</v>
       </c>
       <c r="F310">
         <v>83</v>
       </c>
       <c r="G310">
-        <v>6700</v>
+        <v>6736</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -7789,19 +7819,19 @@
         <v>4524</v>
       </c>
       <c r="C311">
-        <v>430203</v>
+        <v>430202</v>
       </c>
       <c r="D311">
         <v>169</v>
       </c>
       <c r="E311">
-        <v>18246</v>
+        <v>18248</v>
       </c>
       <c r="F311">
         <v>82</v>
       </c>
       <c r="G311">
-        <v>6782</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -7812,19 +7842,19 @@
         <v>3081</v>
       </c>
       <c r="C312">
-        <v>433284</v>
+        <v>433283</v>
       </c>
       <c r="D312">
         <v>165</v>
       </c>
       <c r="E312">
-        <v>18411</v>
+        <v>18413</v>
       </c>
       <c r="F312">
         <v>91</v>
       </c>
       <c r="G312">
-        <v>6873</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -7835,19 +7865,19 @@
         <v>1750</v>
       </c>
       <c r="C313">
-        <v>435034</v>
+        <v>435033</v>
       </c>
       <c r="D313">
         <v>147</v>
       </c>
       <c r="E313">
-        <v>18558</v>
+        <v>18560</v>
       </c>
       <c r="F313">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G313">
-        <v>6938</v>
+        <v>6976</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -7858,19 +7888,19 @@
         <v>2378</v>
       </c>
       <c r="C314">
-        <v>437412</v>
+        <v>437411</v>
       </c>
       <c r="D314">
         <v>136</v>
       </c>
       <c r="E314">
-        <v>18694</v>
+        <v>18696</v>
       </c>
       <c r="F314">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G314">
-        <v>7032</v>
+        <v>7071</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -7881,19 +7911,19 @@
         <v>2143</v>
       </c>
       <c r="C315">
-        <v>439555</v>
+        <v>439554</v>
       </c>
       <c r="D315">
         <v>126</v>
       </c>
       <c r="E315">
-        <v>18820</v>
+        <v>18822</v>
       </c>
       <c r="F315">
         <v>92</v>
       </c>
       <c r="G315">
-        <v>7124</v>
+        <v>7163</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -7904,19 +7934,19 @@
         <v>5070</v>
       </c>
       <c r="C316">
-        <v>444625</v>
+        <v>444624</v>
       </c>
       <c r="D316">
         <v>219</v>
       </c>
       <c r="E316">
-        <v>19039</v>
+        <v>19041</v>
       </c>
       <c r="F316">
         <v>77</v>
       </c>
       <c r="G316">
-        <v>7201</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -7927,19 +7957,19 @@
         <v>4499</v>
       </c>
       <c r="C317">
-        <v>449124</v>
+        <v>449123</v>
       </c>
       <c r="D317">
         <v>157</v>
       </c>
       <c r="E317">
-        <v>19196</v>
+        <v>19198</v>
       </c>
       <c r="F317">
         <v>76</v>
       </c>
       <c r="G317">
-        <v>7277</v>
+        <v>7316</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -7950,19 +7980,19 @@
         <v>4241</v>
       </c>
       <c r="C318">
-        <v>453365</v>
+        <v>453364</v>
       </c>
       <c r="D318">
         <v>166</v>
       </c>
       <c r="E318">
-        <v>19362</v>
+        <v>19364</v>
       </c>
       <c r="F318">
         <v>93</v>
       </c>
       <c r="G318">
-        <v>7370</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -7973,19 +8003,19 @@
         <v>3078</v>
       </c>
       <c r="C319">
-        <v>456443</v>
+        <v>456442</v>
       </c>
       <c r="D319">
         <v>130</v>
       </c>
       <c r="E319">
-        <v>19492</v>
+        <v>19494</v>
       </c>
       <c r="F319">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G319">
-        <v>7448</v>
+        <v>7489</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -7996,19 +8026,19 @@
         <v>1693</v>
       </c>
       <c r="C320">
-        <v>458136</v>
+        <v>458135</v>
       </c>
       <c r="D320">
         <v>131</v>
       </c>
       <c r="E320">
-        <v>19623</v>
+        <v>19625</v>
       </c>
       <c r="F320">
         <v>73</v>
       </c>
       <c r="G320">
-        <v>7521</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -8019,19 +8049,19 @@
         <v>2741</v>
       </c>
       <c r="C321">
-        <v>460877</v>
+        <v>460876</v>
       </c>
       <c r="D321">
         <v>169</v>
       </c>
       <c r="E321">
-        <v>19792</v>
+        <v>19794</v>
       </c>
       <c r="F321">
         <v>65</v>
       </c>
       <c r="G321">
-        <v>7586</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -8042,19 +8072,19 @@
         <v>2237</v>
       </c>
       <c r="C322">
-        <v>463114</v>
+        <v>463113</v>
       </c>
       <c r="D322">
         <v>135</v>
       </c>
       <c r="E322">
-        <v>19927</v>
+        <v>19929</v>
       </c>
       <c r="F322">
         <v>66</v>
       </c>
       <c r="G322">
-        <v>7652</v>
+        <v>7693</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -8065,19 +8095,19 @@
         <v>5309</v>
       </c>
       <c r="C323">
-        <v>468423</v>
+        <v>468422</v>
       </c>
       <c r="D323">
         <v>184</v>
       </c>
       <c r="E323">
-        <v>20111</v>
+        <v>20113</v>
       </c>
       <c r="F323">
         <v>52</v>
       </c>
       <c r="G323">
-        <v>7704</v>
+        <v>7745</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -8088,19 +8118,19 @@
         <v>4194</v>
       </c>
       <c r="C324">
-        <v>472617</v>
+        <v>472616</v>
       </c>
       <c r="D324">
         <v>138</v>
       </c>
       <c r="E324">
-        <v>20249</v>
+        <v>20251</v>
       </c>
       <c r="F324">
         <v>64</v>
       </c>
       <c r="G324">
-        <v>7768</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -8111,19 +8141,19 @@
         <v>3358</v>
       </c>
       <c r="C325">
-        <v>475975</v>
+        <v>475974</v>
       </c>
       <c r="D325">
         <v>126</v>
       </c>
       <c r="E325">
-        <v>20375</v>
+        <v>20377</v>
       </c>
       <c r="F325">
         <v>59</v>
       </c>
       <c r="G325">
-        <v>7827</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -8134,19 +8164,19 @@
         <v>3187</v>
       </c>
       <c r="C326">
-        <v>479162</v>
+        <v>479161</v>
       </c>
       <c r="D326">
         <v>154</v>
       </c>
       <c r="E326">
-        <v>20529</v>
+        <v>20531</v>
       </c>
       <c r="F326">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G326">
-        <v>7889</v>
+        <v>7931</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -8157,19 +8187,19 @@
         <v>3061</v>
       </c>
       <c r="C327">
-        <v>482223</v>
+        <v>482222</v>
       </c>
       <c r="D327">
         <v>136</v>
       </c>
       <c r="E327">
-        <v>20665</v>
+        <v>20667</v>
       </c>
       <c r="F327">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G327">
-        <v>7937</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -8180,19 +8210,19 @@
         <v>1690</v>
       </c>
       <c r="C328">
-        <v>483913</v>
+        <v>483912</v>
       </c>
       <c r="D328">
         <v>113</v>
       </c>
       <c r="E328">
-        <v>20778</v>
+        <v>20780</v>
       </c>
       <c r="F328">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G328">
-        <v>8003</v>
+        <v>8047</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -8203,19 +8233,19 @@
         <v>1302</v>
       </c>
       <c r="C329">
-        <v>485215</v>
+        <v>485214</v>
       </c>
       <c r="D329">
         <v>82</v>
       </c>
       <c r="E329">
-        <v>20860</v>
+        <v>20862</v>
       </c>
       <c r="F329">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G329">
-        <v>8058</v>
+        <v>8104</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -8226,19 +8256,19 @@
         <v>3475</v>
       </c>
       <c r="C330">
-        <v>488690</v>
+        <v>488689</v>
       </c>
       <c r="D330">
         <v>126</v>
       </c>
       <c r="E330">
-        <v>20986</v>
+        <v>20988</v>
       </c>
       <c r="F330">
         <v>57</v>
       </c>
       <c r="G330">
-        <v>8115</v>
+        <v>8161</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -8249,19 +8279,19 @@
         <v>2615</v>
       </c>
       <c r="C331">
-        <v>491305</v>
+        <v>491304</v>
       </c>
       <c r="D331">
         <v>99</v>
       </c>
       <c r="E331">
-        <v>21085</v>
+        <v>21087</v>
       </c>
       <c r="F331">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G331">
-        <v>8167</v>
+        <v>8215</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -8272,19 +8302,19 @@
         <v>2465</v>
       </c>
       <c r="C332">
-        <v>493770</v>
+        <v>493769</v>
       </c>
       <c r="D332">
         <v>116</v>
       </c>
       <c r="E332">
-        <v>21201</v>
+        <v>21203</v>
       </c>
       <c r="F332">
         <v>56</v>
       </c>
       <c r="G332">
-        <v>8223</v>
+        <v>8271</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -8295,19 +8325,19 @@
         <v>2240</v>
       </c>
       <c r="C333">
-        <v>496010</v>
+        <v>496009</v>
       </c>
       <c r="D333">
         <v>93</v>
       </c>
       <c r="E333">
-        <v>21294</v>
+        <v>21296</v>
       </c>
       <c r="F333">
         <v>47</v>
       </c>
       <c r="G333">
-        <v>8270</v>
+        <v>8318</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -8318,19 +8348,19 @@
         <v>2163</v>
       </c>
       <c r="C334">
-        <v>498173</v>
+        <v>498172</v>
       </c>
       <c r="D334">
         <v>91</v>
       </c>
       <c r="E334">
-        <v>21385</v>
+        <v>21387</v>
       </c>
       <c r="F334">
         <v>61</v>
       </c>
       <c r="G334">
-        <v>8331</v>
+        <v>8379</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -8341,19 +8371,19 @@
         <v>1343</v>
       </c>
       <c r="C335">
-        <v>499516</v>
+        <v>499515</v>
       </c>
       <c r="D335">
         <v>78</v>
       </c>
       <c r="E335">
-        <v>21463</v>
+        <v>21465</v>
       </c>
       <c r="F335">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G335">
-        <v>8379</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -8364,19 +8394,19 @@
         <v>899</v>
       </c>
       <c r="C336">
-        <v>500415</v>
+        <v>500414</v>
       </c>
       <c r="D336">
         <v>61</v>
       </c>
       <c r="E336">
-        <v>21524</v>
+        <v>21526</v>
       </c>
       <c r="F336">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G336">
-        <v>8412</v>
+        <v>8463</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -8387,19 +8417,19 @@
         <v>2956</v>
       </c>
       <c r="C337">
-        <v>503371</v>
+        <v>503370</v>
       </c>
       <c r="D337">
         <v>110</v>
       </c>
       <c r="E337">
-        <v>21634</v>
+        <v>21636</v>
       </c>
       <c r="F337">
         <v>37</v>
       </c>
       <c r="G337">
-        <v>8449</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -8410,19 +8440,19 @@
         <v>2340</v>
       </c>
       <c r="C338">
-        <v>505711</v>
+        <v>505710</v>
       </c>
       <c r="D338">
         <v>85</v>
       </c>
       <c r="E338">
-        <v>21719</v>
+        <v>21721</v>
       </c>
       <c r="F338">
         <v>63</v>
       </c>
       <c r="G338">
-        <v>8512</v>
+        <v>8563</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -8433,19 +8463,19 @@
         <v>2297</v>
       </c>
       <c r="C339">
-        <v>508008</v>
+        <v>508007</v>
       </c>
       <c r="D339">
         <v>83</v>
       </c>
       <c r="E339">
-        <v>21802</v>
+        <v>21804</v>
       </c>
       <c r="F339">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G339">
-        <v>8556</v>
+        <v>8608</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -8456,19 +8486,19 @@
         <v>2060</v>
       </c>
       <c r="C340">
-        <v>510068</v>
+        <v>510067</v>
       </c>
       <c r="D340">
         <v>81</v>
       </c>
       <c r="E340">
-        <v>21883</v>
+        <v>21885</v>
       </c>
       <c r="F340">
         <v>42</v>
       </c>
       <c r="G340">
-        <v>8598</v>
+        <v>8650</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -8479,19 +8509,19 @@
         <v>2043</v>
       </c>
       <c r="C341">
-        <v>512111</v>
+        <v>512110</v>
       </c>
       <c r="D341">
         <v>86</v>
       </c>
       <c r="E341">
-        <v>21969</v>
+        <v>21971</v>
       </c>
       <c r="F341">
         <v>43</v>
       </c>
       <c r="G341">
-        <v>8641</v>
+        <v>8693</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -8502,19 +8532,19 @@
         <v>1103</v>
       </c>
       <c r="C342">
-        <v>513214</v>
+        <v>513213</v>
       </c>
       <c r="D342">
         <v>41</v>
       </c>
       <c r="E342">
-        <v>22010</v>
+        <v>22012</v>
       </c>
       <c r="F342">
         <v>44</v>
       </c>
       <c r="G342">
-        <v>8685</v>
+        <v>8737</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -8525,19 +8555,19 @@
         <v>743</v>
       </c>
       <c r="C343">
-        <v>513957</v>
+        <v>513956</v>
       </c>
       <c r="D343">
         <v>35</v>
       </c>
       <c r="E343">
-        <v>22045</v>
+        <v>22047</v>
       </c>
       <c r="F343">
         <v>47</v>
       </c>
       <c r="G343">
-        <v>8732</v>
+        <v>8784</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -8548,19 +8578,19 @@
         <v>2495</v>
       </c>
       <c r="C344">
-        <v>516452</v>
+        <v>516451</v>
       </c>
       <c r="D344">
         <v>73</v>
       </c>
       <c r="E344">
-        <v>22118</v>
+        <v>22120</v>
       </c>
       <c r="F344">
         <v>30</v>
       </c>
       <c r="G344">
-        <v>8762</v>
+        <v>8814</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -8571,19 +8601,19 @@
         <v>1855</v>
       </c>
       <c r="C345">
-        <v>518307</v>
+        <v>518306</v>
       </c>
       <c r="D345">
         <v>83</v>
       </c>
       <c r="E345">
-        <v>22201</v>
+        <v>22203</v>
       </c>
       <c r="F345">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G345">
-        <v>8798</v>
+        <v>8852</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -8594,19 +8624,19 @@
         <v>1879</v>
       </c>
       <c r="C346">
-        <v>520186</v>
+        <v>520185</v>
       </c>
       <c r="D346">
         <v>65</v>
       </c>
       <c r="E346">
-        <v>22266</v>
+        <v>22268</v>
       </c>
       <c r="F346">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G346">
-        <v>8830</v>
+        <v>8885</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -8617,19 +8647,19 @@
         <v>1789</v>
       </c>
       <c r="C347">
-        <v>521975</v>
+        <v>521974</v>
       </c>
       <c r="D347">
         <v>67</v>
       </c>
       <c r="E347">
-        <v>22333</v>
+        <v>22335</v>
       </c>
       <c r="F347">
         <v>37</v>
       </c>
       <c r="G347">
-        <v>8867</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -8637,22 +8667,22 @@
         <v>44225</v>
       </c>
       <c r="B348">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C348">
-        <v>523742</v>
+        <v>523740</v>
       </c>
       <c r="D348">
         <v>54</v>
       </c>
       <c r="E348">
-        <v>22387</v>
+        <v>22389</v>
       </c>
       <c r="F348">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G348">
-        <v>8898</v>
+        <v>8954</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -8663,19 +8693,19 @@
         <v>1021</v>
       </c>
       <c r="C349">
-        <v>524763</v>
+        <v>524761</v>
       </c>
       <c r="D349">
         <v>53</v>
       </c>
       <c r="E349">
-        <v>22440</v>
+        <v>22442</v>
       </c>
       <c r="F349">
         <v>27</v>
       </c>
       <c r="G349">
-        <v>8925</v>
+        <v>8981</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -8686,19 +8716,19 @@
         <v>740</v>
       </c>
       <c r="C350">
-        <v>525503</v>
+        <v>525501</v>
       </c>
       <c r="D350">
         <v>40</v>
       </c>
       <c r="E350">
-        <v>22480</v>
+        <v>22482</v>
       </c>
       <c r="F350">
         <v>27</v>
       </c>
       <c r="G350">
-        <v>8952</v>
+        <v>9008</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -8709,19 +8739,19 @@
         <v>2174</v>
       </c>
       <c r="C351">
-        <v>527677</v>
+        <v>527675</v>
       </c>
       <c r="D351">
         <v>66</v>
       </c>
       <c r="E351">
-        <v>22546</v>
+        <v>22548</v>
       </c>
       <c r="F351">
         <v>30</v>
       </c>
       <c r="G351">
-        <v>8982</v>
+        <v>9038</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -8732,19 +8762,19 @@
         <v>1653</v>
       </c>
       <c r="C352">
-        <v>529330</v>
+        <v>529328</v>
       </c>
       <c r="D352">
         <v>64</v>
       </c>
       <c r="E352">
-        <v>22610</v>
+        <v>22612</v>
       </c>
       <c r="F352">
         <v>20</v>
       </c>
       <c r="G352">
-        <v>9002</v>
+        <v>9058</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -8755,19 +8785,19 @@
         <v>1735</v>
       </c>
       <c r="C353">
-        <v>531065</v>
+        <v>531063</v>
       </c>
       <c r="D353">
         <v>59</v>
       </c>
       <c r="E353">
-        <v>22669</v>
+        <v>22671</v>
       </c>
       <c r="F353">
         <v>19</v>
       </c>
       <c r="G353">
-        <v>9021</v>
+        <v>9077</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -8778,19 +8808,19 @@
         <v>1444</v>
       </c>
       <c r="C354">
-        <v>532509</v>
+        <v>532507</v>
       </c>
       <c r="D354">
         <v>56</v>
       </c>
       <c r="E354">
-        <v>22725</v>
+        <v>22727</v>
       </c>
       <c r="F354">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G354">
-        <v>9041</v>
+        <v>9098</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -8801,19 +8831,19 @@
         <v>1509</v>
       </c>
       <c r="C355">
-        <v>534018</v>
+        <v>534016</v>
       </c>
       <c r="D355">
         <v>52</v>
       </c>
       <c r="E355">
-        <v>22777</v>
+        <v>22779</v>
       </c>
       <c r="F355">
         <v>22</v>
       </c>
       <c r="G355">
-        <v>9063</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -8824,19 +8854,19 @@
         <v>891</v>
       </c>
       <c r="C356">
-        <v>534909</v>
+        <v>534907</v>
       </c>
       <c r="D356">
         <v>49</v>
       </c>
       <c r="E356">
-        <v>22826</v>
+        <v>22828</v>
       </c>
       <c r="F356">
         <v>25</v>
       </c>
       <c r="G356">
-        <v>9088</v>
+        <v>9145</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -8847,19 +8877,19 @@
         <v>676</v>
       </c>
       <c r="C357">
-        <v>535585</v>
+        <v>535583</v>
       </c>
       <c r="D357">
         <v>44</v>
       </c>
       <c r="E357">
-        <v>22870</v>
+        <v>22872</v>
       </c>
       <c r="F357">
         <v>19</v>
       </c>
       <c r="G357">
-        <v>9107</v>
+        <v>9164</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -8870,19 +8900,19 @@
         <v>1752</v>
       </c>
       <c r="C358">
-        <v>537337</v>
+        <v>537335</v>
       </c>
       <c r="D358">
         <v>56</v>
       </c>
       <c r="E358">
-        <v>22926</v>
+        <v>22928</v>
       </c>
       <c r="F358">
         <v>19</v>
       </c>
       <c r="G358">
-        <v>9126</v>
+        <v>9183</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -8893,19 +8923,19 @@
         <v>1352</v>
       </c>
       <c r="C359">
-        <v>538689</v>
+        <v>538687</v>
       </c>
       <c r="D359">
         <v>39</v>
       </c>
       <c r="E359">
-        <v>22965</v>
+        <v>22967</v>
       </c>
       <c r="F359">
         <v>15</v>
       </c>
       <c r="G359">
-        <v>9141</v>
+        <v>9198</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -8916,19 +8946,19 @@
         <v>1259</v>
       </c>
       <c r="C360">
-        <v>539948</v>
+        <v>539946</v>
       </c>
       <c r="D360">
         <v>43</v>
       </c>
       <c r="E360">
-        <v>23008</v>
+        <v>23010</v>
       </c>
       <c r="F360">
         <v>21</v>
       </c>
       <c r="G360">
-        <v>9162</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -8939,19 +8969,19 @@
         <v>1175</v>
       </c>
       <c r="C361">
-        <v>541123</v>
+        <v>541121</v>
       </c>
       <c r="D361">
         <v>46</v>
       </c>
       <c r="E361">
-        <v>23054</v>
+        <v>23056</v>
       </c>
       <c r="F361">
         <v>14</v>
       </c>
       <c r="G361">
-        <v>9176</v>
+        <v>9233</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -8962,19 +8992,19 @@
         <v>1131</v>
       </c>
       <c r="C362">
-        <v>542254</v>
+        <v>542252</v>
       </c>
       <c r="D362">
         <v>43</v>
       </c>
       <c r="E362">
-        <v>23097</v>
+        <v>23099</v>
       </c>
       <c r="F362">
         <v>16</v>
       </c>
       <c r="G362">
-        <v>9192</v>
+        <v>9249</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -8985,19 +9015,19 @@
         <v>719</v>
       </c>
       <c r="C363">
-        <v>542973</v>
+        <v>542971</v>
       </c>
       <c r="D363">
         <v>33</v>
       </c>
       <c r="E363">
-        <v>23130</v>
+        <v>23132</v>
       </c>
       <c r="F363">
         <v>17</v>
       </c>
       <c r="G363">
-        <v>9209</v>
+        <v>9266</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -9008,19 +9038,19 @@
         <v>484</v>
       </c>
       <c r="C364">
-        <v>543457</v>
+        <v>543455</v>
       </c>
       <c r="D364">
         <v>39</v>
       </c>
       <c r="E364">
-        <v>23169</v>
+        <v>23171</v>
       </c>
       <c r="F364">
         <v>21</v>
       </c>
       <c r="G364">
-        <v>9230</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -9031,19 +9061,19 @@
         <v>1307</v>
       </c>
       <c r="C365">
-        <v>544764</v>
+        <v>544762</v>
       </c>
       <c r="D365">
         <v>38</v>
       </c>
       <c r="E365">
-        <v>23207</v>
+        <v>23209</v>
       </c>
       <c r="F365">
         <v>18</v>
       </c>
       <c r="G365">
-        <v>9248</v>
+        <v>9305</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -9054,19 +9084,19 @@
         <v>1139</v>
       </c>
       <c r="C366">
-        <v>545903</v>
+        <v>545901</v>
       </c>
       <c r="D366">
         <v>42</v>
       </c>
       <c r="E366">
-        <v>23249</v>
+        <v>23251</v>
       </c>
       <c r="F366">
         <v>8</v>
       </c>
       <c r="G366">
-        <v>9256</v>
+        <v>9313</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -9077,19 +9107,19 @@
         <v>1217</v>
       </c>
       <c r="C367">
-        <v>547120</v>
+        <v>547118</v>
       </c>
       <c r="D367">
         <v>47</v>
       </c>
       <c r="E367">
-        <v>23296</v>
+        <v>23298</v>
       </c>
       <c r="F367">
         <v>9</v>
       </c>
       <c r="G367">
-        <v>9265</v>
+        <v>9322</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -9100,19 +9130,19 @@
         <v>1008</v>
       </c>
       <c r="C368">
-        <v>548128</v>
+        <v>548126</v>
       </c>
       <c r="D368">
         <v>60</v>
       </c>
       <c r="E368">
-        <v>23356</v>
+        <v>23358</v>
       </c>
       <c r="F368">
         <v>10</v>
       </c>
       <c r="G368">
-        <v>9275</v>
+        <v>9332</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -9123,19 +9153,19 @@
         <v>1095</v>
       </c>
       <c r="C369">
-        <v>549223</v>
+        <v>549221</v>
       </c>
       <c r="D369">
         <v>46</v>
       </c>
       <c r="E369">
-        <v>23402</v>
+        <v>23404</v>
       </c>
       <c r="F369">
         <v>11</v>
       </c>
       <c r="G369">
-        <v>9286</v>
+        <v>9343</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -9146,19 +9176,19 @@
         <v>693</v>
       </c>
       <c r="C370">
-        <v>549916</v>
+        <v>549914</v>
       </c>
       <c r="D370">
         <v>22</v>
       </c>
       <c r="E370">
-        <v>23424</v>
+        <v>23426</v>
       </c>
       <c r="F370">
         <v>14</v>
       </c>
       <c r="G370">
-        <v>9300</v>
+        <v>9357</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -9169,19 +9199,19 @@
         <v>529</v>
       </c>
       <c r="C371">
-        <v>550445</v>
+        <v>550443</v>
       </c>
       <c r="D371">
         <v>32</v>
       </c>
       <c r="E371">
-        <v>23456</v>
+        <v>23458</v>
       </c>
       <c r="F371">
         <v>11</v>
       </c>
       <c r="G371">
-        <v>9311</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -9192,19 +9222,19 @@
         <v>1413</v>
       </c>
       <c r="C372">
-        <v>551858</v>
+        <v>551856</v>
       </c>
       <c r="D372">
         <v>41</v>
       </c>
       <c r="E372">
-        <v>23497</v>
+        <v>23499</v>
       </c>
       <c r="F372">
         <v>8</v>
       </c>
       <c r="G372">
-        <v>9319</v>
+        <v>9376</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -9215,19 +9245,19 @@
         <v>1266</v>
       </c>
       <c r="C373">
-        <v>553124</v>
+        <v>553122</v>
       </c>
       <c r="D373">
         <v>39</v>
       </c>
       <c r="E373">
-        <v>23536</v>
+        <v>23538</v>
       </c>
       <c r="F373">
         <v>10</v>
       </c>
       <c r="G373">
-        <v>9329</v>
+        <v>9386</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -9235,22 +9265,22 @@
         <v>44251</v>
       </c>
       <c r="B374">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C374">
-        <v>554206</v>
+        <v>554205</v>
       </c>
       <c r="D374">
         <v>46</v>
       </c>
       <c r="E374">
-        <v>23582</v>
+        <v>23584</v>
       </c>
       <c r="F374">
         <v>7</v>
       </c>
       <c r="G374">
-        <v>9336</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -9261,19 +9291,19 @@
         <v>1123</v>
       </c>
       <c r="C375">
-        <v>555329</v>
+        <v>555328</v>
       </c>
       <c r="D375">
         <v>46</v>
       </c>
       <c r="E375">
-        <v>23628</v>
+        <v>23630</v>
       </c>
       <c r="F375">
         <v>9</v>
       </c>
       <c r="G375">
-        <v>9345</v>
+        <v>9402</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -9284,19 +9314,19 @@
         <v>1082</v>
       </c>
       <c r="C376">
-        <v>556411</v>
+        <v>556410</v>
       </c>
       <c r="D376">
         <v>33</v>
       </c>
       <c r="E376">
-        <v>23661</v>
+        <v>23663</v>
       </c>
       <c r="F376">
         <v>7</v>
       </c>
       <c r="G376">
-        <v>9352</v>
+        <v>9409</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -9307,19 +9337,19 @@
         <v>728</v>
       </c>
       <c r="C377">
-        <v>557139</v>
+        <v>557138</v>
       </c>
       <c r="D377">
         <v>29</v>
       </c>
       <c r="E377">
-        <v>23690</v>
+        <v>23692</v>
       </c>
       <c r="F377">
         <v>9</v>
       </c>
       <c r="G377">
-        <v>9361</v>
+        <v>9418</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -9330,19 +9360,19 @@
         <v>551</v>
       </c>
       <c r="C378">
-        <v>557690</v>
+        <v>557689</v>
       </c>
       <c r="D378">
         <v>29</v>
       </c>
       <c r="E378">
-        <v>23719</v>
+        <v>23721</v>
       </c>
       <c r="F378">
         <v>6</v>
       </c>
       <c r="G378">
-        <v>9367</v>
+        <v>9424</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -9350,22 +9380,22 @@
         <v>44256</v>
       </c>
       <c r="B379">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C379">
-        <v>559111</v>
+        <v>559109</v>
       </c>
       <c r="D379">
         <v>41</v>
       </c>
       <c r="E379">
-        <v>23760</v>
+        <v>23762</v>
       </c>
       <c r="F379">
         <v>9</v>
       </c>
       <c r="G379">
-        <v>9376</v>
+        <v>9433</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -9376,19 +9406,19 @@
         <v>1236</v>
       </c>
       <c r="C380">
-        <v>560347</v>
+        <v>560345</v>
       </c>
       <c r="D380">
         <v>51</v>
       </c>
       <c r="E380">
-        <v>23811</v>
+        <v>23813</v>
       </c>
       <c r="F380">
         <v>9</v>
       </c>
       <c r="G380">
-        <v>9385</v>
+        <v>9442</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -9399,19 +9429,19 @@
         <v>1245</v>
       </c>
       <c r="C381">
-        <v>561592</v>
+        <v>561590</v>
       </c>
       <c r="D381">
         <v>54</v>
       </c>
       <c r="E381">
-        <v>23865</v>
+        <v>23867</v>
       </c>
       <c r="F381">
         <v>7</v>
       </c>
       <c r="G381">
-        <v>9392</v>
+        <v>9449</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -9422,19 +9452,19 @@
         <v>1065</v>
       </c>
       <c r="C382">
-        <v>562657</v>
+        <v>562655</v>
       </c>
       <c r="D382">
         <v>38</v>
       </c>
       <c r="E382">
-        <v>23903</v>
+        <v>23905</v>
       </c>
       <c r="F382">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G382">
-        <v>9400</v>
+        <v>9458</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -9445,19 +9475,19 @@
         <v>1278</v>
       </c>
       <c r="C383">
-        <v>563935</v>
+        <v>563933</v>
       </c>
       <c r="D383">
         <v>48</v>
       </c>
       <c r="E383">
-        <v>23951</v>
+        <v>23953</v>
       </c>
       <c r="F383">
         <v>7</v>
       </c>
       <c r="G383">
-        <v>9407</v>
+        <v>9465</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -9468,19 +9498,19 @@
         <v>768</v>
       </c>
       <c r="C384">
-        <v>564703</v>
+        <v>564701</v>
       </c>
       <c r="D384">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E384">
-        <v>23988</v>
+        <v>23991</v>
       </c>
       <c r="F384">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G384">
-        <v>9414</v>
+        <v>9473</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -9491,19 +9521,19 @@
         <v>583</v>
       </c>
       <c r="C385">
-        <v>565286</v>
+        <v>565284</v>
       </c>
       <c r="D385">
         <v>39</v>
       </c>
       <c r="E385">
-        <v>24027</v>
+        <v>24030</v>
       </c>
       <c r="F385">
         <v>7</v>
       </c>
       <c r="G385">
-        <v>9421</v>
+        <v>9480</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -9514,19 +9544,19 @@
         <v>1702</v>
       </c>
       <c r="C386">
-        <v>566988</v>
+        <v>566986</v>
       </c>
       <c r="D386">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E386">
-        <v>24083</v>
+        <v>24087</v>
       </c>
       <c r="F386">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G386">
-        <v>9430</v>
+        <v>9490</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -9537,19 +9567,19 @@
         <v>1387</v>
       </c>
       <c r="C387">
-        <v>568375</v>
+        <v>568373</v>
       </c>
       <c r="D387">
         <v>37</v>
       </c>
       <c r="E387">
-        <v>24120</v>
+        <v>24124</v>
       </c>
       <c r="F387">
         <v>9</v>
       </c>
       <c r="G387">
-        <v>9439</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -9560,19 +9590,19 @@
         <v>1395</v>
       </c>
       <c r="C388">
-        <v>569770</v>
+        <v>569768</v>
       </c>
       <c r="D388">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E388">
-        <v>24167</v>
+        <v>24172</v>
       </c>
       <c r="F388">
         <v>11</v>
       </c>
       <c r="G388">
-        <v>9450</v>
+        <v>9510</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -9583,19 +9613,19 @@
         <v>1339</v>
       </c>
       <c r="C389">
-        <v>571109</v>
+        <v>571107</v>
       </c>
       <c r="D389">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E389">
-        <v>24208</v>
+        <v>24215</v>
       </c>
       <c r="F389">
         <v>11</v>
       </c>
       <c r="G389">
-        <v>9461</v>
+        <v>9521</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -9606,19 +9636,19 @@
         <v>1344</v>
       </c>
       <c r="C390">
-        <v>572453</v>
+        <v>572451</v>
       </c>
       <c r="D390">
         <v>45</v>
       </c>
       <c r="E390">
-        <v>24253</v>
+        <v>24260</v>
       </c>
       <c r="F390">
         <v>7</v>
       </c>
       <c r="G390">
-        <v>9468</v>
+        <v>9528</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -9629,19 +9659,19 @@
         <v>928</v>
       </c>
       <c r="C391">
-        <v>573381</v>
+        <v>573379</v>
       </c>
       <c r="D391">
         <v>39</v>
       </c>
       <c r="E391">
-        <v>24292</v>
+        <v>24299</v>
       </c>
       <c r="F391">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G391">
-        <v>9478</v>
+        <v>9539</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -9652,19 +9682,19 @@
         <v>708</v>
       </c>
       <c r="C392">
-        <v>574089</v>
+        <v>574087</v>
       </c>
       <c r="D392">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E392">
-        <v>24338</v>
+        <v>24346</v>
       </c>
       <c r="F392">
         <v>8</v>
       </c>
       <c r="G392">
-        <v>9486</v>
+        <v>9547</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -9675,19 +9705,19 @@
         <v>1922</v>
       </c>
       <c r="C393">
-        <v>576011</v>
+        <v>576009</v>
       </c>
       <c r="D393">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E393">
-        <v>24398</v>
+        <v>24408</v>
       </c>
       <c r="F393">
         <v>8</v>
       </c>
       <c r="G393">
-        <v>9494</v>
+        <v>9555</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -9695,22 +9725,22 @@
         <v>44271</v>
       </c>
       <c r="B394">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C394">
-        <v>577657</v>
+        <v>577656</v>
       </c>
       <c r="D394">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E394">
-        <v>24444</v>
+        <v>24455</v>
       </c>
       <c r="F394">
         <v>10</v>
       </c>
       <c r="G394">
-        <v>9504</v>
+        <v>9565</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -9721,19 +9751,19 @@
         <v>1829</v>
       </c>
       <c r="C395">
-        <v>579486</v>
+        <v>579485</v>
       </c>
       <c r="D395">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E395">
-        <v>24484</v>
+        <v>24498</v>
       </c>
       <c r="F395">
         <v>13</v>
       </c>
       <c r="G395">
-        <v>9517</v>
+        <v>9578</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -9741,22 +9771,22 @@
         <v>44273</v>
       </c>
       <c r="B396">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C396">
         <v>581130</v>
       </c>
       <c r="D396">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E396">
-        <v>24528</v>
+        <v>24545</v>
       </c>
       <c r="F396">
         <v>8</v>
       </c>
       <c r="G396">
-        <v>9525</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -9770,16 +9800,16 @@
         <v>582677</v>
       </c>
       <c r="D397">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E397">
-        <v>24571</v>
+        <v>24599</v>
       </c>
       <c r="F397">
         <v>8</v>
       </c>
       <c r="G397">
-        <v>9533</v>
+        <v>9594</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -9787,22 +9817,22 @@
         <v>44275</v>
       </c>
       <c r="B398">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C398">
-        <v>583788</v>
+        <v>583789</v>
       </c>
       <c r="D398">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E398">
-        <v>24602</v>
+        <v>24636</v>
       </c>
       <c r="F398">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G398">
-        <v>9535</v>
+        <v>9598</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -9810,22 +9840,22 @@
         <v>44276</v>
       </c>
       <c r="B399">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="C399">
-        <v>584570</v>
+        <v>584576</v>
       </c>
       <c r="D399">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E399">
-        <v>24633</v>
+        <v>24670</v>
       </c>
       <c r="F399">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G399">
-        <v>9541</v>
+        <v>9605</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -9833,22 +9863,22 @@
         <v>44277</v>
       </c>
       <c r="B400">
-        <v>2217</v>
+        <v>2258</v>
       </c>
       <c r="C400">
-        <v>586787</v>
+        <v>586834</v>
       </c>
       <c r="D400">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E400">
-        <v>24673</v>
+        <v>24717</v>
       </c>
       <c r="F400">
         <v>3</v>
       </c>
       <c r="G400">
-        <v>9544</v>
+        <v>9608</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -9856,22 +9886,22 @@
         <v>44278</v>
       </c>
       <c r="B401">
-        <v>1329</v>
+        <v>1909</v>
       </c>
       <c r="C401">
-        <v>588116</v>
+        <v>588743</v>
       </c>
       <c r="D401">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E401">
-        <v>24681</v>
+        <v>24746</v>
       </c>
       <c r="F401">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G401">
-        <v>9551</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -9879,22 +9909,45 @@
         <v>44279</v>
       </c>
       <c r="B402">
+        <v>1417</v>
+      </c>
+      <c r="C402">
+        <v>590160</v>
+      </c>
+      <c r="D402">
+        <v>9</v>
+      </c>
+      <c r="E402">
+        <v>24755</v>
+      </c>
+      <c r="F402">
         <v>2</v>
       </c>
-      <c r="C402">
-        <v>588118</v>
-      </c>
-      <c r="D402">
+      <c r="G402">
+        <v>9621</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B403">
+        <v>4</v>
+      </c>
+      <c r="C403">
+        <v>590164</v>
+      </c>
+      <c r="D403">
         <v>0</v>
       </c>
-      <c r="E402">
-        <v>24681</v>
-      </c>
-      <c r="F402">
-        <v>1</v>
-      </c>
-      <c r="G402">
-        <v>9552</v>
+      <c r="E403">
+        <v>24755</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+      <c r="G403">
+        <v>9621</v>
       </c>
     </row>
   </sheetData>
@@ -9974,22 +10027,22 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>4528</v>
+        <v>4586</v>
       </c>
       <c r="C8">
         <v>1.6</v>
       </c>
       <c r="D8">
-        <v>1005.3</v>
+        <v>1018.2</v>
       </c>
       <c r="E8">
-        <v>4140</v>
+        <v>4201</v>
       </c>
       <c r="F8">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G8">
-        <v>970.3</v>
+        <v>984.6</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -9998,7 +10051,7 @@
         <v>3</v>
       </c>
       <c r="J8">
-        <v>8673</v>
+        <v>8792</v>
       </c>
       <c r="K8">
         <v>1.5</v>
@@ -10009,22 +10062,22 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>26212</v>
+        <v>26374</v>
       </c>
       <c r="C9">
         <v>9.4</v>
       </c>
       <c r="D9">
-        <v>6003.4</v>
+        <v>6040.5</v>
       </c>
       <c r="E9">
-        <v>26555</v>
+        <v>26714</v>
       </c>
       <c r="F9">
         <v>8.6</v>
       </c>
       <c r="G9">
-        <v>6453.9</v>
+        <v>6492.5</v>
       </c>
       <c r="H9">
         <v>16</v>
@@ -10033,7 +10086,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="J9">
-        <v>52783</v>
+        <v>53104</v>
       </c>
       <c r="K9">
         <v>9</v>
@@ -10044,22 +10097,22 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>47984</v>
+        <v>48165</v>
       </c>
       <c r="C10">
         <v>17.2</v>
       </c>
       <c r="D10">
-        <v>8933.5</v>
+        <v>8967.2000000000007</v>
       </c>
       <c r="E10">
-        <v>53025</v>
+        <v>53213</v>
       </c>
       <c r="F10">
         <v>17.2</v>
       </c>
       <c r="G10">
-        <v>10341.700000000001</v>
+        <v>10378.299999999999</v>
       </c>
       <c r="H10">
         <v>28</v>
@@ -10068,7 +10121,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="J10">
-        <v>101037</v>
+        <v>101406</v>
       </c>
       <c r="K10">
         <v>17.2</v>
@@ -10079,22 +10132,22 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>47522</v>
+        <v>47707</v>
       </c>
       <c r="C11">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>7623.7</v>
+        <v>7653.4</v>
       </c>
       <c r="E11">
-        <v>51519</v>
+        <v>51684</v>
       </c>
       <c r="F11">
         <v>16.7</v>
       </c>
       <c r="G11">
-        <v>8434.7000000000007</v>
+        <v>8461.7000000000007</v>
       </c>
       <c r="H11">
         <v>38</v>
@@ -10103,7 +10156,7 @@
         <v>23.2</v>
       </c>
       <c r="J11">
-        <v>99079</v>
+        <v>99429</v>
       </c>
       <c r="K11">
         <v>16.8</v>
@@ -10114,22 +10167,22 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>43698</v>
+        <v>43872</v>
       </c>
       <c r="C12">
         <v>15.6</v>
       </c>
       <c r="D12">
-        <v>7219.3</v>
+        <v>7248.1</v>
       </c>
       <c r="E12">
-        <v>50069</v>
+        <v>50241</v>
       </c>
       <c r="F12">
         <v>16.2</v>
       </c>
       <c r="G12">
-        <v>8365.2999999999993</v>
+        <v>8394</v>
       </c>
       <c r="H12">
         <v>32</v>
@@ -10138,10 +10191,10 @@
         <v>19.5</v>
       </c>
       <c r="J12">
-        <v>93799</v>
+        <v>94145</v>
       </c>
       <c r="K12">
-        <v>15.9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -10149,22 +10202,22 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>46953</v>
+        <v>47099</v>
       </c>
       <c r="C13">
         <v>16.8</v>
       </c>
       <c r="D13">
-        <v>7175.2</v>
+        <v>7197.5</v>
       </c>
       <c r="E13">
-        <v>50684</v>
+        <v>50794</v>
       </c>
       <c r="F13">
         <v>16.399999999999999</v>
       </c>
       <c r="G13">
-        <v>7863.7</v>
+        <v>7880.8</v>
       </c>
       <c r="H13">
         <v>26</v>
@@ -10173,7 +10226,7 @@
         <v>15.9</v>
       </c>
       <c r="J13">
-        <v>97663</v>
+        <v>97919</v>
       </c>
       <c r="K13">
         <v>16.600000000000001</v>
@@ -10184,22 +10237,22 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>28867</v>
+        <v>28955</v>
       </c>
       <c r="C14">
         <v>10.3</v>
       </c>
       <c r="D14">
-        <v>6161.4</v>
+        <v>6180.2</v>
       </c>
       <c r="E14">
-        <v>26990</v>
+        <v>27085</v>
       </c>
       <c r="F14">
         <v>8.8000000000000007</v>
       </c>
       <c r="G14">
-        <v>5573.5</v>
+        <v>5593.1</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -10208,7 +10261,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J14">
-        <v>55865</v>
+        <v>56048</v>
       </c>
       <c r="K14">
         <v>9.5</v>
@@ -10219,22 +10272,22 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>18576</v>
+        <v>18614</v>
       </c>
       <c r="C15">
         <v>6.6</v>
       </c>
       <c r="D15">
-        <v>5495.6</v>
+        <v>5506.8</v>
       </c>
       <c r="E15">
-        <v>18138</v>
+        <v>18171</v>
       </c>
       <c r="F15">
         <v>5.9</v>
       </c>
       <c r="G15">
-        <v>4688.2</v>
+        <v>4696.7</v>
       </c>
       <c r="H15">
         <v>7</v>
@@ -10243,7 +10296,7 @@
         <v>4.3</v>
       </c>
       <c r="J15">
-        <v>36721</v>
+        <v>36792</v>
       </c>
       <c r="K15">
         <v>6.2</v>
@@ -10254,22 +10307,22 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>15230</v>
+        <v>15242</v>
       </c>
       <c r="C16">
         <v>5.4</v>
       </c>
       <c r="D16">
-        <v>8734.5</v>
+        <v>8741.2999999999993</v>
       </c>
       <c r="E16">
-        <v>27142</v>
+        <v>27161</v>
       </c>
       <c r="F16">
         <v>8.8000000000000007</v>
       </c>
       <c r="G16">
-        <v>9664.9</v>
+        <v>9671.7000000000007</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -10278,7 +10331,7 @@
         <v>0.6</v>
       </c>
       <c r="J16">
-        <v>42373</v>
+        <v>42404</v>
       </c>
       <c r="K16">
         <v>7.2</v>
@@ -10380,16 +10433,16 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>39089</v>
+        <v>39251</v>
       </c>
       <c r="C8">
-        <v>5699.4</v>
+        <v>5723</v>
       </c>
       <c r="E8">
-        <v>1770</v>
+        <v>1807</v>
       </c>
       <c r="F8">
-        <v>258.10000000000002</v>
+        <v>263.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10397,16 +10450,16 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C9">
-        <v>5642.4</v>
+        <v>5667.2</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>105.4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10414,16 +10467,16 @@
         <v>43</v>
       </c>
       <c r="B10">
-        <v>3304</v>
+        <v>3309</v>
       </c>
       <c r="C10">
-        <v>5959.1</v>
+        <v>5968.1</v>
       </c>
       <c r="E10">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F10">
-        <v>174.9</v>
+        <v>165.9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10431,16 +10484,16 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <v>55168</v>
+        <v>55339</v>
       </c>
       <c r="C11">
-        <v>5307.3</v>
+        <v>5323.8</v>
       </c>
       <c r="E11">
-        <v>1487</v>
+        <v>1550</v>
       </c>
       <c r="F11">
-        <v>143.1</v>
+        <v>149.1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10448,16 +10501,16 @@
         <v>45</v>
       </c>
       <c r="B12">
-        <v>14740</v>
+        <v>14793</v>
       </c>
       <c r="C12">
-        <v>5092.1000000000004</v>
+        <v>5110.3999999999996</v>
       </c>
       <c r="E12">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F12">
-        <v>237.7</v>
+        <v>236.3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -10465,16 +10518,16 @@
         <v>46</v>
       </c>
       <c r="B13">
-        <v>10842</v>
+        <v>10888</v>
       </c>
       <c r="C13">
-        <v>5536</v>
+        <v>5559.5</v>
       </c>
       <c r="E13">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F13">
-        <v>205.8</v>
+        <v>206.8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -10482,16 +10535,16 @@
         <v>47</v>
       </c>
       <c r="B14">
-        <v>2723</v>
+        <v>2725</v>
       </c>
       <c r="C14">
-        <v>7027.6</v>
+        <v>7032.8</v>
       </c>
       <c r="E14">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F14">
-        <v>136.80000000000001</v>
+        <v>123.9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10499,10 +10552,10 @@
         <v>48</v>
       </c>
       <c r="B15">
-        <v>28532</v>
+        <v>28594</v>
       </c>
       <c r="C15">
-        <v>8866.7999999999993</v>
+        <v>8886.1</v>
       </c>
       <c r="E15">
         <v>784</v>
@@ -10516,16 +10569,16 @@
         <v>49</v>
       </c>
       <c r="B16">
-        <v>53799</v>
+        <v>53974</v>
       </c>
       <c r="C16">
-        <v>10671.7</v>
+        <v>10706.4</v>
       </c>
       <c r="E16">
-        <v>1876</v>
+        <v>1930</v>
       </c>
       <c r="F16">
-        <v>372.1</v>
+        <v>382.8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10533,16 +10586,16 @@
         <v>50</v>
       </c>
       <c r="B17">
-        <v>2266</v>
+        <v>2276</v>
       </c>
       <c r="C17">
-        <v>5582.7</v>
+        <v>5607.3</v>
       </c>
       <c r="E17">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>81.3</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10550,16 +10603,16 @@
         <v>51</v>
       </c>
       <c r="B18">
-        <v>11286</v>
+        <v>11313</v>
       </c>
       <c r="C18">
-        <v>5670.8</v>
+        <v>5684.3</v>
       </c>
       <c r="E18">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F18">
-        <v>167.8</v>
+        <v>169.8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10567,16 +10620,16 @@
         <v>52</v>
       </c>
       <c r="B19">
-        <v>6067</v>
+        <v>6076</v>
       </c>
       <c r="C19">
-        <v>8245</v>
+        <v>8257.2000000000007</v>
       </c>
       <c r="E19">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F19">
-        <v>164.4</v>
+        <v>169.9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10584,16 +10637,16 @@
         <v>53</v>
       </c>
       <c r="B20">
-        <v>23157</v>
+        <v>23239</v>
       </c>
       <c r="C20">
-        <v>5605.4</v>
+        <v>5625.2</v>
       </c>
       <c r="E20">
-        <v>861</v>
+        <v>872</v>
       </c>
       <c r="F20">
-        <v>208.4</v>
+        <v>211.1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10601,16 +10654,16 @@
         <v>54</v>
       </c>
       <c r="B21">
-        <v>15091</v>
+        <v>15143</v>
       </c>
       <c r="C21">
-        <v>8550.2999999999993</v>
+        <v>8579.7999999999993</v>
       </c>
       <c r="E21">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="F21">
-        <v>253.3</v>
+        <v>262.89999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10618,16 +10671,16 @@
         <v>55</v>
       </c>
       <c r="B22">
-        <v>2095</v>
+        <v>2104</v>
       </c>
       <c r="C22">
-        <v>4862.3</v>
+        <v>4883.1000000000004</v>
       </c>
       <c r="E22">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F22">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -10635,16 +10688,16 @@
         <v>56</v>
       </c>
       <c r="B23">
-        <v>1842</v>
+        <v>1854</v>
       </c>
       <c r="C23">
-        <v>4856.3</v>
+        <v>4888</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F23">
-        <v>160.80000000000001</v>
+        <v>181.9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -10652,16 +10705,16 @@
         <v>57</v>
       </c>
       <c r="B24">
-        <v>35671</v>
+        <v>35802</v>
       </c>
       <c r="C24">
-        <v>6984.3</v>
+        <v>7009.9</v>
       </c>
       <c r="E24">
-        <v>949</v>
+        <v>1023</v>
       </c>
       <c r="F24">
-        <v>185.8</v>
+        <v>200.3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -10669,16 +10722,16 @@
         <v>58</v>
       </c>
       <c r="B25">
-        <v>3875</v>
+        <v>3892</v>
       </c>
       <c r="C25">
-        <v>4705.6000000000004</v>
+        <v>4726.3</v>
       </c>
       <c r="E25">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F25">
-        <v>142.1</v>
+        <v>148.19999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10686,16 +10739,16 @@
         <v>59</v>
       </c>
       <c r="B26">
-        <v>14571</v>
+        <v>14628</v>
       </c>
       <c r="C26">
-        <v>5293.8</v>
+        <v>5314.5</v>
       </c>
       <c r="E26">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="F26">
-        <v>211.1</v>
+        <v>214.7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10703,16 +10756,16 @@
         <v>60</v>
       </c>
       <c r="B27">
-        <v>9973</v>
+        <v>9997</v>
       </c>
       <c r="C27">
-        <v>6214.5</v>
+        <v>6229.4</v>
       </c>
       <c r="E27">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="F27">
-        <v>146.4</v>
+        <v>155.80000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10720,16 +10773,16 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>15394</v>
+        <v>15468</v>
       </c>
       <c r="C28">
-        <v>5506.8</v>
+        <v>5533.2</v>
       </c>
       <c r="E28">
-        <v>486</v>
+        <v>529</v>
       </c>
       <c r="F28">
-        <v>173.9</v>
+        <v>189.2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10737,16 +10790,16 @@
         <v>62</v>
       </c>
       <c r="B29">
-        <v>29460</v>
+        <v>29578</v>
       </c>
       <c r="C29">
-        <v>8381.4</v>
+        <v>8415</v>
       </c>
       <c r="E29">
-        <v>1005</v>
+        <v>1044</v>
       </c>
       <c r="F29">
-        <v>285.89999999999998</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10754,16 +10807,16 @@
         <v>63</v>
       </c>
       <c r="B30">
-        <v>1948</v>
+        <v>1964</v>
       </c>
       <c r="C30">
-        <v>5307.5</v>
+        <v>5351.1</v>
       </c>
       <c r="E30">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F30">
-        <v>343.3</v>
+        <v>370.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -10771,16 +10824,16 @@
         <v>64</v>
       </c>
       <c r="B31">
-        <v>72848</v>
+        <v>73088</v>
       </c>
       <c r="C31">
-        <v>9048.2999999999993</v>
+        <v>9078.1</v>
       </c>
       <c r="E31">
-        <v>2440</v>
+        <v>2510</v>
       </c>
       <c r="F31">
-        <v>303.10000000000002</v>
+        <v>311.8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -10788,16 +10841,16 @@
         <v>65</v>
       </c>
       <c r="B32">
-        <v>32905</v>
+        <v>33007</v>
       </c>
       <c r="C32">
-        <v>9523.2000000000007</v>
+        <v>9552.7000000000007</v>
       </c>
       <c r="E32">
-        <v>941</v>
+        <v>987</v>
       </c>
       <c r="F32">
-        <v>272.3</v>
+        <v>285.7</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -10805,16 +10858,16 @@
         <v>66</v>
       </c>
       <c r="B33">
-        <v>6952</v>
+        <v>6973</v>
       </c>
       <c r="C33">
-        <v>5446.5</v>
+        <v>5462.9</v>
       </c>
       <c r="E33">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F33">
-        <v>263.2</v>
+        <v>267.89999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10822,16 +10875,16 @@
         <v>67</v>
       </c>
       <c r="B34">
-        <v>93610</v>
+        <v>93975</v>
       </c>
       <c r="C34">
-        <v>6081.4</v>
+        <v>6105.1</v>
       </c>
       <c r="E34">
-        <v>3412</v>
+        <v>3545</v>
       </c>
       <c r="F34">
-        <v>221.7</v>
+        <v>230.3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -10839,16 +10892,16 @@
         <v>68</v>
       </c>
       <c r="B35">
-        <v>588118</v>
+        <v>590164</v>
       </c>
       <c r="C35">
-        <v>6803.2</v>
+        <v>6826.8</v>
       </c>
       <c r="E35">
-        <v>19741</v>
+        <v>20392</v>
       </c>
       <c r="F35">
-        <v>228.4</v>
+        <v>235.9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10922,22 +10975,22 @@
         <v>137</v>
       </c>
       <c r="C8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F8">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="G8">
         <v>30.4</v>
       </c>
       <c r="H8">
-        <v>26.7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10945,7 +10998,7 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>62</v>
@@ -10954,13 +11007,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F9">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="G9">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="H9">
         <v>15.1</v>
@@ -10974,22 +11027,22 @@
         <v>234</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F10">
-        <v>41.3</v>
+        <v>41.6</v>
       </c>
       <c r="G10">
         <v>43.6</v>
       </c>
       <c r="H10">
-        <v>39</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -10997,25 +11050,25 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F11">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
       <c r="G11">
-        <v>58.4</v>
+        <v>58.9</v>
       </c>
       <c r="H11">
-        <v>51.4</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -11023,25 +11076,25 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="C12">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1349</v>
+        <v>1358</v>
       </c>
       <c r="F12">
-        <v>112.1</v>
+        <v>112.8</v>
       </c>
       <c r="G12">
-        <v>135.5</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="H12">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11049,25 +11102,25 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>1872</v>
+        <v>1877</v>
       </c>
       <c r="C13">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2953</v>
+        <v>2963</v>
       </c>
       <c r="F13">
-        <v>227.3</v>
+        <v>228.1</v>
       </c>
       <c r="G13">
-        <v>286.10000000000002</v>
+        <v>286.8</v>
       </c>
       <c r="H13">
-        <v>167.7</v>
+        <v>168.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11075,25 +11128,25 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>2794</v>
+        <v>2804</v>
       </c>
       <c r="C14">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>4346</v>
+        <v>4363</v>
       </c>
       <c r="F14">
-        <v>456.1</v>
+        <v>457.9</v>
       </c>
       <c r="G14">
-        <v>596.4</v>
+        <v>598.5</v>
       </c>
       <c r="H14">
-        <v>320.10000000000002</v>
+        <v>321.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11101,25 +11154,25 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>3810</v>
+        <v>3817</v>
       </c>
       <c r="C15">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6380</v>
+        <v>6392</v>
       </c>
       <c r="F15">
-        <v>880.1</v>
+        <v>881.8</v>
       </c>
       <c r="G15">
-        <v>1127.2</v>
+        <v>1129.2</v>
       </c>
       <c r="H15">
-        <v>664.3</v>
+        <v>665.6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11127,25 +11180,25 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>4280</v>
+        <v>4292</v>
       </c>
       <c r="C16">
-        <v>4338</v>
+        <v>4346</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8618</v>
+        <v>8638</v>
       </c>
       <c r="F16">
-        <v>1893.2</v>
+        <v>1897.6</v>
       </c>
       <c r="G16">
-        <v>2454.6</v>
+        <v>2461.5</v>
       </c>
       <c r="H16">
-        <v>1544.7</v>
+        <v>1547.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -11368,25 +11421,25 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C14">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="F14">
-        <v>62.3</v>
+        <v>63</v>
       </c>
       <c r="G14">
-        <v>95.2</v>
+        <v>96</v>
       </c>
       <c r="H14">
-        <v>30.6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11394,25 +11447,25 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>1256</v>
+        <v>1263</v>
       </c>
       <c r="C15">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1895</v>
+        <v>1907</v>
       </c>
       <c r="F15">
-        <v>261.39999999999998</v>
+        <v>263.10000000000002</v>
       </c>
       <c r="G15">
-        <v>371.6</v>
+        <v>373.6</v>
       </c>
       <c r="H15">
-        <v>165.2</v>
+        <v>166.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11420,25 +11473,25 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>3283</v>
+        <v>3308</v>
       </c>
       <c r="C16">
-        <v>3570</v>
+        <v>3596</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6853</v>
+        <v>6904</v>
       </c>
       <c r="F16">
-        <v>1505.5</v>
+        <v>1516.7</v>
       </c>
       <c r="G16">
-        <v>1882.8</v>
+        <v>1897.1</v>
       </c>
       <c r="H16">
-        <v>1271.2</v>
+        <v>1280.5</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -11457,7 +11510,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11619,7 +11672,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="1">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C12" t="s">
         <v>106</v>
@@ -11631,13 +11684,13 @@
         <v>108</v>
       </c>
       <c r="F12" s="2">
-        <v>149.239294153412</v>
+        <v>157.530366050824</v>
       </c>
       <c r="G12" s="2">
-        <v>436.66311993035498</v>
+        <v>457.73626100294302</v>
       </c>
       <c r="H12" s="2">
-        <v>39.382591512706099</v>
+        <v>36.6189008802355</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11743,20 +11796,26 @@
         <v>50</v>
       </c>
       <c r="B17" s="1">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="F17" s="2">
+        <v>41.882237004188198</v>
+      </c>
+      <c r="G17" s="2">
+        <v>91.155457009115594</v>
+      </c>
+      <c r="H17" s="2">
+        <v>49.273220004927303</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -11766,13 +11825,13 @@
         <v>44278</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F18" s="2">
         <v>84.413202626858507</v>
@@ -11792,10 +11851,10 @@
         <v>44278</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
         <v>99</v>
@@ -11815,20 +11874,26 @@
         <v>53</v>
       </c>
       <c r="B20" s="1">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="F20" s="2">
+        <v>141.36328427575501</v>
+      </c>
+      <c r="G20" s="2">
+        <v>137.00619674670801</v>
+      </c>
+      <c r="H20" s="2">
+        <v>62.209527498063501</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -11838,13 +11903,13 @@
         <v>44278</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F21" s="2">
         <v>130.31456803553601</v>
@@ -11861,22 +11926,22 @@
         <v>55</v>
       </c>
       <c r="B22" s="1">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
         <v>97</v>
       </c>
       <c r="F22" s="2">
-        <v>99.7980829484531</v>
+        <v>111.402511198273</v>
       </c>
       <c r="G22" s="2">
-        <v>241.37210759625901</v>
+        <v>294.75247754543102</v>
       </c>
       <c r="H22" s="2">
         <v>46.417712999280504</v>
@@ -11887,25 +11952,25 @@
         <v>56</v>
       </c>
       <c r="B23" s="1">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F23" s="2">
         <v>92.275243870287397</v>
       </c>
       <c r="G23" s="2">
-        <v>150.27682573161101</v>
+        <v>166.09543896651701</v>
       </c>
       <c r="H23" s="2">
-        <v>26.364355391510699</v>
+        <v>31.637226469812799</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -11916,13 +11981,13 @@
         <v>44278</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F24" s="2">
         <v>317.97373975494099</v>
@@ -11942,10 +12007,10 @@
         <v>44278</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
         <v>111</v>
@@ -11968,13 +12033,13 @@
         <v>44278</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F26" s="2">
         <v>146.41394819925401</v>
@@ -11991,20 +12056,26 @@
         <v>60</v>
       </c>
       <c r="B27" s="1">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="F27" s="2">
+        <v>120.264207377866</v>
+      </c>
+      <c r="G27" s="2">
+        <v>238.65902293120601</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -12014,13 +12085,13 @@
         <v>44278</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F28" s="2">
         <v>110.17825267307499</v>
@@ -12037,20 +12108,26 @@
         <v>62</v>
       </c>
       <c r="B29" s="1">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="F29" s="2">
+        <v>163.304323581543</v>
+      </c>
+      <c r="G29" s="2">
+        <v>265.72515370237102</v>
+      </c>
+      <c r="H29" s="2">
+        <v>55.1934473428907</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -12080,13 +12157,13 @@
         <v>44278</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F31" s="2">
         <v>221.33951394736999</v>
@@ -12106,13 +12183,13 @@
         <v>44278</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F32" s="2">
         <v>165.545184863613</v>
@@ -12132,13 +12209,13 @@
         <v>44278</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F33" s="2">
         <v>142.58629604675599</v>
@@ -12158,10 +12235,10 @@
         <v>44278</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
         <v>109</v>
